--- a/PWL_POS/public/template_barang.xlsx
+++ b/PWL_POS/public/template_barang.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EB869FA-A187-434D-8474-A4BA9072D60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{873764D3-7159-493F-B551-CBA5945EB905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{E906C9FE-E4DB-470B-B345-0BB3959705B2}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{5992C8C9-7DF0-4EC9-B398-976E1CA600B4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="m_barang" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6" uniqueCount="6">
   <si>
     <t>kategori_id</t>
   </si>
@@ -42,59 +42,538 @@
     <t>harga_jual</t>
   </si>
   <si>
-    <t>Telur Omega (10 butir)</t>
-  </si>
-  <si>
-    <t>Sari Roti</t>
-  </si>
-  <si>
-    <t>Shampoo Pantene</t>
-  </si>
-  <si>
-    <t>Baju Bayi 2th</t>
-  </si>
-  <si>
-    <t>Cleo 600ml</t>
+    <t>Panadol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color rgb="FF7F7F7F"/>
+      </start>
+      <end style="thin">
+        <color rgb="FF7F7F7F"/>
+      </end>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color rgb="FF3F3F3F"/>
+      </start>
+      <end style="thin">
+        <color rgb="FF3F3F3F"/>
+      </end>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="double">
+        <color rgb="FF3F3F3F"/>
+      </start>
+      <end style="double">
+        <color rgb="FF3F3F3F"/>
+      </end>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color rgb="FFB2B2B2"/>
+      </start>
+      <end style="thin">
+        <color rgb="FFB2B2B2"/>
+      </end>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -110,7 +589,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -120,39 +599,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -204,7 +683,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -263,25 +742,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:lumMod val="110%"/>
+                <a:satMod val="105%"/>
+                <a:tint val="67%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="103%"/>
+                <a:tint val="73%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="109%"/>
+                <a:tint val="81%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -289,25 +768,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:satMod val="103%"/>
+                <a:lumMod val="102%"/>
+                <a:tint val="94%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:satMod val="110%"/>
+                <a:lumMod val="100%"/>
+                <a:shade val="100%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:lumMod val="99%"/>
+                <a:satMod val="120%"/>
+                <a:shade val="78%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -315,26 +794,26 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800%"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -348,7 +827,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="63%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -360,32 +839,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+            <a:tint val="95%"/>
+            <a:satMod val="170%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="93%"/>
+                <a:satMod val="150%"/>
+                <a:shade val="98%"/>
+                <a:lumMod val="102%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="98%"/>
+                <a:satMod val="130%"/>
+                <a:shade val="90%"/>
+                <a:lumMod val="103%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="63%"/>
+                <a:satMod val="120%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -394,134 +873,88 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC50927-C0E9-4464-BA55-D16AF7323055}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFBC9BD-E01D-4EEC-BE0C-D5ECAFA30CF0}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>22000</v>
+        <v>3000</v>
       </c>
       <c r="E2">
-        <v>25000</v>
+        <v>5000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>11500</v>
-      </c>
-      <c r="E3">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>17500</v>
-      </c>
-      <c r="E4">
-        <v>18500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>89000</v>
-      </c>
-      <c r="E5">
-        <v>92500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>3750</v>
-      </c>
-      <c r="E6">
-        <v>4300</v>
-      </c>
+      <c r="H2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
